--- a/API.xlsx
+++ b/API.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Git\basic_spring\task3-calender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Git\spring\basic\task3-calender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8B88D-E7F2-46C9-8C7F-90A8235E0585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F93F1A-E634-4055-8062-A105B066A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="375" windowWidth="27480" windowHeight="20340" xr2:uid="{A36068E4-41E5-472D-8372-CB51CB00F622}"/>
+    <workbookView xWindow="5870" yWindow="2960" windowWidth="24420" windowHeight="18020" activeTab="1" xr2:uid="{A36068E4-41E5-472D-8372-CB51CB00F622}"/>
   </bookViews>
   <sheets>
-    <sheet name="v2_도전" sheetId="4" r:id="rId1"/>
-    <sheet name="v1_필수" sheetId="1" r:id="rId2"/>
+    <sheet name="v3_숙련" sheetId="5" r:id="rId1"/>
+    <sheet name="v3_동작 정의" sheetId="6" r:id="rId2"/>
+    <sheet name="v2_도전" sheetId="4" r:id="rId3"/>
+    <sheet name="v1_필수" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +236,246 @@
 비밀번호는 Hash하여 전송
 required : title / writer / password / startTime / endTime
 Timestamp는 s | ms 단위의 Unixtime (1970-01-01-00:00:00 기준 경과량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일-종료일은 같을 수 있다. 역전될 수는 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 교차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginRequestDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginResponseDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCreateRequestDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redirect : Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleCreateRequestDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redirect : ScheduleInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleDeleteRequestDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header : Authorization (Bearer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redirect?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제된 일정은 옵션으로 검색해야 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제된 댓글은 옵션으로 검색해야 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nullable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수문자 허용 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 제목은 최대 150Byte / 50자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account와 Password는 Min : 6자, Max : 100Byte / 30자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +536,37 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -369,34 +641,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2584287B-F20F-4675-B9C4-169B7AEA1A04}" name="표1_4" displayName="표1_4" ref="B3:I21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{505184B9-B795-4827-8449-41A5538FC433}" name="표1_43" displayName="표1_43" ref="B3:I21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B3:I21" xr:uid="{3A48052C-3B6D-4625-8B2B-ADE9CA12A9C2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AAF3F834-F33B-4731-A9F4-28A8EE542F3B}" name="기능" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B1710873-E8A5-47DB-927D-F5543240C3AB}" name="Method" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{53BB31B1-8A04-4F90-BEE9-D8C9A94857F3}" name="URL" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{3C7B0367-2720-4224-B1F8-FCAA034C6388}" name="request param" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{36E5EEC7-9DBA-4E86-87DE-F4F73F14C469}" name="request body" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{0B19AC7C-1E04-4109-A414-654B5718A2AD}" name="response body" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{813BD035-09CB-46E3-8C4F-52581FC39510}" name="상태코드" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{D0847F43-3DFA-4666-9945-A16D4E6A1400}" name="비고" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1CD9F95A-796D-4B2E-B806-2526EEDA720F}" name="기능" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{275ED648-A880-4C62-8C5A-7B445BECCC65}" name="Method" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1172AA79-B515-44F0-AC90-A5315F78E355}" name="URL" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{38EA07A7-531C-4144-B6B8-1A89C401537E}" name="request param" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{968ADB35-5B9A-4328-9300-C6FB522ABF26}" name="request body" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4CA5283A-7C72-4DEE-B063-1991B5B1A6DF}" name="response body" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7CB4F26B-B3FF-402F-BAE8-F8022ECF28C9}" name="상태코드" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0DF4684C-CC0B-4FE1-9FBA-E71D804E6AB7}" name="비고" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2584287B-F20F-4675-B9C4-169B7AEA1A04}" name="표1_4" displayName="표1_4" ref="B3:I21" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B3:I21" xr:uid="{3A48052C-3B6D-4625-8B2B-ADE9CA12A9C2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{AAF3F834-F33B-4731-A9F4-28A8EE542F3B}" name="기능" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B1710873-E8A5-47DB-927D-F5543240C3AB}" name="Method" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{53BB31B1-8A04-4F90-BEE9-D8C9A94857F3}" name="URL" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{3C7B0367-2720-4224-B1F8-FCAA034C6388}" name="request param" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{36E5EEC7-9DBA-4E86-87DE-F4F73F14C469}" name="request body" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0B19AC7C-1E04-4109-A414-654B5718A2AD}" name="response body" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{813BD035-09CB-46E3-8C4F-52581FC39510}" name="상태코드" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{D0847F43-3DFA-4666-9945-A16D4E6A1400}" name="비고" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A48052C-3B6D-4625-8B2B-ADE9CA12A9C2}" name="표1" displayName="표1" ref="B3:I21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:I21" xr:uid="{3A48052C-3B6D-4625-8B2B-ADE9CA12A9C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D71A70B-300D-4943-BB2E-CC8E3586AEC5}" name="기능" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{30E65F7A-F5CE-471C-8F28-0C58E895168F}" name="Method" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{05326B7F-696E-411B-AD97-43325DD29C68}" name="URL" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{CFB56880-7E0A-40B6-A093-66886B85A7CA}" name="request param" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5E19F3A1-FBC4-4668-820C-00BD044F0205}" name="request body" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{551D7719-AF9F-4B7B-BDD7-85BA15B6251A}" name="response body" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D2CB3055-96DC-48A6-87C4-D0D0367A016F}" name="상태코드" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A9075045-DCB4-4084-875E-CEE8B337E035}" name="비고" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{CFB56880-7E0A-40B6-A093-66886B85A7CA}" name="request param" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5E19F3A1-FBC4-4668-820C-00BD044F0205}" name="request body" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{551D7719-AF9F-4B7B-BDD7-85BA15B6251A}" name="response body" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D2CB3055-96DC-48A6-87C4-D0D0367A016F}" name="상태코드" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A9075045-DCB4-4084-875E-CEE8B337E035}" name="비고" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,10 +987,656 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE06B35-3306-46FB-9869-43794709F84A}">
+  <dimension ref="B2:I21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.58203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.08203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="136" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="138.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="170" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="153" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="68" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B134FE9-46BD-4B3C-868E-EF1B33BFDBC6}">
+  <dimension ref="B5:R37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="13.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="13.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.58203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="13.58203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="R6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="R8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="K31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34C6690-4104-4818-AAC8-889EA0BC0CFA}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -999,7 +1934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CCE274-47B8-404A-BD0A-0DABA7B2D9B4}">
   <dimension ref="B2:I21"/>
   <sheetViews>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Git\spring\basic\task3-calender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F93F1A-E634-4055-8062-A105B066A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB945F9-155D-4B55-B4BC-61FED05B3249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5870" yWindow="2960" windowWidth="24420" windowHeight="18020" activeTab="1" xr2:uid="{A36068E4-41E5-472D-8372-CB51CB00F622}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,10 @@
   </si>
   <si>
     <t>Account와 Password는 Min : 6자, Max : 100Byte / 30자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Password는 Hash되어 입/출력 되기에 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B134FE9-46BD-4B3C-868E-EF1B33BFDBC6}">
   <dimension ref="B5:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1613,12 +1617,15 @@
         <v>63</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D36" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.45">
